--- a/bcpr.xlsx
+++ b/bcpr.xlsx
@@ -12,102 +12,150 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="67">
   <si>
     <t>Wins</t>
   </si>
   <si>
+    <t>Faux</t>
+  </si>
+  <si>
+    <t>Espi</t>
+  </si>
+  <si>
+    <t>Elliot</t>
+  </si>
+  <si>
+    <t>RK</t>
+  </si>
+  <si>
+    <t>Maknae</t>
+  </si>
+  <si>
+    <t>Shon</t>
+  </si>
+  <si>
+    <t>Webwipe</t>
+  </si>
+  <si>
+    <t>Polo</t>
+  </si>
+  <si>
+    <t>Shmugs</t>
+  </si>
+  <si>
+    <t>Pines</t>
+  </si>
+  <si>
+    <t>Unruly</t>
+  </si>
+  <si>
+    <t>Mojo</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>BO10</t>
+  </si>
+  <si>
+    <t>Zilo</t>
+  </si>
+  <si>
+    <t>Bor</t>
+  </si>
+  <si>
+    <t>Amrak</t>
+  </si>
+  <si>
+    <t>Pasta</t>
+  </si>
+  <si>
+    <t>vs Field (sets)</t>
+  </si>
+  <si>
     <t>Losses</t>
   </si>
   <si>
     <t>Fauxhebro</t>
   </si>
   <si>
-    <t>Espi</t>
-  </si>
-  <si>
-    <t>Elliot</t>
-  </si>
-  <si>
-    <t>RK</t>
-  </si>
-  <si>
-    <t>Maknae</t>
-  </si>
-  <si>
-    <t>Shon</t>
+    <t>vs Field (records)</t>
   </si>
   <si>
     <t>West (x2)</t>
   </si>
   <si>
-    <t>Webwipe</t>
-  </si>
-  <si>
     <t>West</t>
   </si>
   <si>
-    <t>Polo</t>
-  </si>
-  <si>
-    <t>Shmugs</t>
-  </si>
-  <si>
-    <t>Pines</t>
-  </si>
-  <si>
-    <t>Unruly</t>
-  </si>
-  <si>
     <t>MojoMonkey</t>
   </si>
   <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>BO10</t>
-  </si>
-  <si>
     <t>Starving</t>
   </si>
   <si>
-    <t>Zilo</t>
-  </si>
-  <si>
-    <t>Faux</t>
-  </si>
-  <si>
-    <t>Mojo</t>
-  </si>
-  <si>
-    <t>Bor</t>
-  </si>
-  <si>
-    <t>Amrak</t>
-  </si>
-  <si>
-    <t>Pasta</t>
-  </si>
-  <si>
     <t>Noobking</t>
   </si>
   <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
     <t>2-0</t>
   </si>
   <si>
-    <t>1-0</t>
+    <t>2-0 (100%)</t>
+  </si>
+  <si>
+    <t>1-0-0 (100%)</t>
   </si>
   <si>
     <t>2-1</t>
   </si>
   <si>
+    <t>3-1 (75%)</t>
+  </si>
+  <si>
+    <t>2-0-0 (100%)</t>
+  </si>
+  <si>
+    <t>1-0 (100%)</t>
+  </si>
+  <si>
     <t>0-1</t>
   </si>
   <si>
+    <t>0-3 (0%)</t>
+  </si>
+  <si>
+    <t>0-3-0 (0%)</t>
+  </si>
+  <si>
     <t>1-2</t>
   </si>
   <si>
-    <t>0-2</t>
+    <t>3-2 (60%)</t>
+  </si>
+  <si>
+    <t>2-1-0 (~67%)</t>
+  </si>
+  <si>
+    <t>0-1 (0%)</t>
+  </si>
+  <si>
+    <t>0-1-0 (0%)</t>
+  </si>
+  <si>
+    <t>1-3 (25%)</t>
+  </si>
+  <si>
+    <t>1-2-0 (~33%)</t>
   </si>
   <si>
     <t>Attended:</t>
@@ -128,9 +176,6 @@
     <t>Tamihi Room 2 https://smash.gg/tournament/tamihi-2-microwaved-steak-a-fraser-valley-smash-regional/events/melee-singles/brackets/672431/1099057</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
     <t>1st</t>
   </si>
   <si>
@@ -140,6 +185,9 @@
     <t>VSBs</t>
   </si>
   <si>
+    <t>**Last Update: Jan 6</t>
+  </si>
+  <si>
     <t>CPS 3.3 https://vsb.challonge.com/meleecps33/groups</t>
   </si>
   <si>
@@ -153,6 +201,12 @@
   </si>
   <si>
     <t>5th</t>
+  </si>
+  <si>
+    <t>CPS 3.5 https://vsb.challonge.com/meleecps35</t>
+  </si>
+  <si>
+    <t>CPS 3.6</t>
   </si>
   <si>
     <t>SFU</t>
@@ -179,15 +233,15 @@
       <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF111111"/>
       <name val="Roboto"/>
     </font>
     <font>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -234,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -244,7 +298,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -256,22 +313,34 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -280,16 +349,16 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -532,582 +601,707 @@
     <col customWidth="1" min="16" max="17" width="4.71"/>
     <col customWidth="1" min="18" max="18" width="7.14"/>
     <col customWidth="1" min="19" max="19" width="6.14"/>
+    <col customWidth="1" min="23" max="23" width="15.29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="S1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
+      <c r="V1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="6"/>
+      <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="7"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="7"/>
+      <c r="U2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="7"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="7"/>
+      <c r="U3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="7"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="7"/>
+      <c r="U4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="7"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="7"/>
+      <c r="U5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="7"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="7"/>
+      <c r="U6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="7"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="7"/>
+      <c r="U7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="6"/>
       <c r="G8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="6"/>
+        <v>38</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="7"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="7"/>
+      <c r="U8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="17" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="7"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="7"/>
+      <c r="U9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="7"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="7"/>
+      <c r="U10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="7"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="7"/>
+      <c r="U11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="7"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="7"/>
+      <c r="U12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W12" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="7"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="7"/>
+      <c r="U13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="7"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="7"/>
+      <c r="U14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="S15" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="7"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="7"/>
+      <c r="U15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="W15" s="17" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="7"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="7"/>
+      <c r="U16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W16" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="7"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="7"/>
+      <c r="U17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W17" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="13"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="18"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="7"/>
+      <c r="U18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="V18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="W18" s="17" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="5"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="7"/>
+      <c r="U19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="W19" s="10" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1"/>
@@ -1136,60 +1330,60 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="14">
+        <v>48</v>
+      </c>
+      <c r="B21" s="19">
         <v>0.0</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="19">
         <v>0.0</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="E21" s="19">
         <v>1.0</v>
       </c>
-      <c r="E21" s="14">
+      <c r="F21" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="19">
         <v>1.0</v>
       </c>
-      <c r="F21" s="14">
+      <c r="H21" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="I21" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="J21" s="19">
         <v>0.0</v>
       </c>
-      <c r="G21" s="14">
+      <c r="K21" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L21" s="20">
         <v>1.0</v>
       </c>
-      <c r="H21" s="14">
+      <c r="M21" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="N21" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="O21" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="P21" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="R21" s="19">
         <v>2.0</v>
       </c>
-      <c r="I21" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="J21" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="K21" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="L21" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="M21" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="N21" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="O21" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="P21" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="Q21" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="R21" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="S21" s="14">
+      <c r="S21" s="19">
         <v>0.0</v>
       </c>
       <c r="T21" s="1"/>
@@ -1198,8 +1392,8 @@
       <c r="W21" s="1"/>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="s">
-        <v>33</v>
+      <c r="A22" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1220,15 +1414,15 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="s">
-        <v>35</v>
+      <c r="A23" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1254,8 +1448,8 @@
       <c r="W23" s="1"/>
     </row>
     <row r="24">
-      <c r="A24" s="15" t="s">
-        <v>36</v>
+      <c r="A24" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1281,64 +1475,64 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25">
-      <c r="A25" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="O25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="P25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="S25" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="T25" s="17">
+      <c r="A25" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T25" s="23">
         <v>2.0</v>
       </c>
       <c r="U25" s="1"/>
@@ -1346,8 +1540,8 @@
       <c r="W25" s="1"/>
     </row>
     <row r="26">
-      <c r="A26" s="15" t="s">
-        <v>41</v>
+      <c r="A26" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1370,67 +1564,69 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
+      <c r="W26" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="N27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="O27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="P27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="R27" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="S27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T27" s="17">
+      <c r="A27" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="R27" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="S27" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="T27" s="23">
         <v>2.0</v>
       </c>
       <c r="U27" s="1"/>
@@ -1438,64 +1634,64 @@
       <c r="W27" s="1"/>
     </row>
     <row r="28">
-      <c r="A28" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J28" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="K28" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L28" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="M28" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="N28" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="O28" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="P28" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q28" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="R28" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="S28" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="T28" s="17">
+      <c r="A28" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O28" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q28" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="R28" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="S28" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="T28" s="23">
         <v>5.0</v>
       </c>
       <c r="U28" s="1"/>
@@ -1503,61 +1699,139 @@
       <c r="W28" s="1"/>
     </row>
     <row r="29">
-      <c r="A29" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
+      <c r="A29" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T29" s="3">
+        <v>1.0</v>
+      </c>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
     </row>
     <row r="30">
-      <c r="A30" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
+      <c r="A30" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T30" s="3">
+        <v>3.0</v>
+      </c>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
     </row>
     <row r="31">
-      <c r="A31" s="1"/>
+      <c r="A31" s="21" t="s">
+        <v>65</v>
+      </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1576,15 +1850,15 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="6">
-        <v>3.0</v>
-      </c>
+      <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
     </row>
     <row r="32">
-      <c r="A32" s="1"/>
+      <c r="A32" s="21" t="s">
+        <v>66</v>
+      </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1603,9 +1877,7 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="6">
-        <v>2.0</v>
-      </c>
+      <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
@@ -1630,8 +1902,8 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="6">
-        <v>2.0</v>
+      <c r="T33" s="7">
+        <v>3.0</v>
       </c>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
@@ -1657,7 +1929,7 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="6">
+      <c r="T34" s="7">
         <v>2.0</v>
       </c>
       <c r="U34" s="1"/>
@@ -1684,7 +1956,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="6">
+      <c r="T35" s="7">
         <v>2.0</v>
       </c>
       <c r="U35" s="1"/>
@@ -1711,12 +1983,66 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="6">
-        <v>3.0</v>
+      <c r="T36" s="7">
+        <v>2.0</v>
       </c>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1738,109 +2064,109 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
+      <c r="A2" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
